--- a/wechatSites/wechat-app/src/main/webapp/WEB-INF/Templates/学生信息模版.xlsx
+++ b/wechatSites/wechat-app/src/main/webapp/WEB-INF/Templates/学生信息模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
   <si>
     <t>姓名</t>
   </si>
   <si>
     <t>学籍号</t>
-  </si>
-  <si>
-    <t>所在年级</t>
-  </si>
-  <si>
-    <t>所在班级</t>
   </si>
   <si>
     <t>陈豪</t>
@@ -60,9 +54,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,14 +63,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,39 +83,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,9 +108,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,6 +122,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -175,8 +144,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,14 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -225,25 +219,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,103 +369,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,56 +403,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -439,34 +433,6 @@
       </top>
       <bottom style="thin">
         <color theme="6" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="6" tint="0.399975585192419"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,17 +478,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -547,6 +502,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -561,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,137 +554,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,22 +694,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,75 +1048,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="5" width="27.125" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>20180101</v>
       </c>
-      <c r="C2" s="5">
-        <v>2018</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>2015</formula1>
-      <formula2>2022</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>1</formula1>
-      <formula2>20</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576">
-      <formula1>0</formula1>
-      <formula2>9999999999999</formula2>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="mailto:631233828@qq.com"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
